--- a/leitor_cnpj/resultados_cnpj_e.xlsx
+++ b/leitor_cnpj/resultados_cnpj_e.xlsx
@@ -1,40 +1,384 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sooretama-my.sharepoint.com/personal/larissa_sooretama_net/Documents/Área de Trabalho/Laryssa/projetos/leitor_cnpj/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_056510B6D3A05C6A4BD82311595ED87656CDE8A6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{32FF9646-DF26-4E55-9DA0-31D5DC5976C9}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="110">
+  <si>
+    <t>abertura</t>
+  </si>
+  <si>
+    <t>situacao</t>
+  </si>
+  <si>
+    <t>tipo</t>
+  </si>
+  <si>
+    <t>nome</t>
+  </si>
+  <si>
+    <t>porte</t>
+  </si>
+  <si>
+    <t>natureza_juridica</t>
+  </si>
+  <si>
+    <t>logradouro</t>
+  </si>
+  <si>
+    <t>numero</t>
+  </si>
+  <si>
+    <t>municipio</t>
+  </si>
+  <si>
+    <t>bairro</t>
+  </si>
+  <si>
+    <t>uf</t>
+  </si>
+  <si>
+    <t>cep</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>telefone</t>
+  </si>
+  <si>
+    <t>data_situacao</t>
+  </si>
+  <si>
+    <t>motivo_situacao</t>
+  </si>
+  <si>
+    <t>cnpj</t>
+  </si>
+  <si>
+    <t>ultima_atualizacao</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>fantasia</t>
+  </si>
+  <si>
+    <t>complemento</t>
+  </si>
+  <si>
+    <t>efr</t>
+  </si>
+  <si>
+    <t>situacao_especial</t>
+  </si>
+  <si>
+    <t>data_situacao_especial</t>
+  </si>
+  <si>
+    <t>atividade_principal</t>
+  </si>
+  <si>
+    <t>atividades_secundarias</t>
+  </si>
+  <si>
+    <t>capital_social</t>
+  </si>
+  <si>
+    <t>qsa</t>
+  </si>
+  <si>
+    <t>simples</t>
+  </si>
+  <si>
+    <t>simei</t>
+  </si>
+  <si>
+    <t>extra</t>
+  </si>
+  <si>
+    <t>billing</t>
+  </si>
+  <si>
+    <t>message</t>
+  </si>
+  <si>
+    <t>21/04/1988</t>
+  </si>
+  <si>
+    <t>BAIXADA</t>
+  </si>
+  <si>
+    <t>FILIAL</t>
+  </si>
+  <si>
+    <t>LOJAS AMERICANAS S.A.</t>
+  </si>
+  <si>
+    <t>DEMAIS</t>
+  </si>
+  <si>
+    <t>204-6 - Sociedade Anônima Aberta</t>
+  </si>
+  <si>
+    <t>AVENIDA INTERLAGOS</t>
+  </si>
+  <si>
+    <t>2255</t>
+  </si>
+  <si>
+    <t>SAO PAULO</t>
+  </si>
+  <si>
+    <t>STO AMARO</t>
+  </si>
+  <si>
+    <t>SP</t>
+  </si>
+  <si>
+    <t>04.661-903</t>
+  </si>
+  <si>
+    <t>sede@lasa.com.br</t>
+  </si>
+  <si>
+    <t>(21) 2206-6439</t>
+  </si>
+  <si>
+    <t>10/12/2021</t>
+  </si>
+  <si>
+    <t>Incorporação</t>
+  </si>
+  <si>
+    <t>33.014.556/0098-19</t>
+  </si>
+  <si>
+    <t>2024-10-04T16:42:44.187Z</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>[{'code': '00.00-0-00', 'text': '********'}]</t>
+  </si>
+  <si>
+    <t>[{'code': '00.00-0-00', 'text': 'Não informada'}]</t>
+  </si>
+  <si>
+    <t>0.00</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>{'optante': False, 'data_opcao': None, 'data_exclusao': None, 'ultima_atualizacao': '2024-09-14T23:59:59.000Z'}</t>
+  </si>
+  <si>
+    <t>{}</t>
+  </si>
+  <si>
+    <t>{'free': True, 'database': True}</t>
+  </si>
+  <si>
+    <t>ERROR</t>
+  </si>
+  <si>
+    <t>CNPJ inválido</t>
+  </si>
+  <si>
+    <t>01/08/2005</t>
+  </si>
+  <si>
+    <t>ATIVA</t>
+  </si>
+  <si>
+    <t>DRIFT COMERCIO DE ALIMENTOS S/A.</t>
+  </si>
+  <si>
+    <t>205-4 - Sociedade Anônima Fechada</t>
+  </si>
+  <si>
+    <t>AVENIDA JUDITH LEAO CASTELLO RIBEIRO</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>VITORIA</t>
+  </si>
+  <si>
+    <t>JARDIM CAMBURI</t>
+  </si>
+  <si>
+    <t>ES</t>
+  </si>
+  <si>
+    <t>29.090-720</t>
+  </si>
+  <si>
+    <t>controladoria@carone.com.br</t>
+  </si>
+  <si>
+    <t>(27) 2125-1000 / (27) 3237-2727 / (27) 2125-1002</t>
+  </si>
+  <si>
+    <t>28.129.260/0009-38</t>
+  </si>
+  <si>
+    <t>2024-10-16T23:59:59.000Z</t>
+  </si>
+  <si>
+    <t>SUPERMERCADO CARONE</t>
+  </si>
+  <si>
+    <t>[{'code': '47.11-3-02', 'text': 'Comércio varejista de mercadorias em geral, com predominância de produtos alimentícios - supermercados'}]</t>
+  </si>
+  <si>
+    <t>[{'code': '47.21-1-02', 'text': 'Padaria e confeitaria com predominância de revenda'}, {'code': '47.22-9-01', 'text': 'Comércio varejista de carnes - açougues'}, {'code': '47.89-0-02', 'text': 'Comércio varejista de plantas e flores naturais'}, {'code': '56.11-2-01', 'text': 'Restaurantes e similares'}, {'code': '56.11-2-03', 'text': 'Lanchonetes, casas de chá, de sucos e similares'}, {'code': '56.11-2-04', 'text': 'Bares e outros estabelecimentos especializados em servir bebidas, sem entretenimento'}, {'code': '56.20-1-04', 'text': 'Fornecimento de alimentos preparados preponderantemente para consumo domiciliar'}]</t>
+  </si>
+  <si>
+    <t>9150000.00</t>
+  </si>
+  <si>
+    <t>{'optante': False, 'data_opcao': None, 'data_exclusao': None, 'ultima_atualizacao': '2024-10-16T23:59:59.000Z'}</t>
+  </si>
+  <si>
+    <t>27/06/2000</t>
+  </si>
+  <si>
+    <t>DORI ALIMENTOS S.A.</t>
+  </si>
+  <si>
+    <t>AV RUI BARBOSA</t>
+  </si>
+  <si>
+    <t>5525</t>
+  </si>
+  <si>
+    <t>SAO JOSE DOS PINHAIS</t>
+  </si>
+  <si>
+    <t>AFONSO PENA</t>
+  </si>
+  <si>
+    <t>PR</t>
+  </si>
+  <si>
+    <t>83.045-350</t>
+  </si>
+  <si>
+    <t>tributario@dori.com.br</t>
+  </si>
+  <si>
+    <t>(14) 3408-3000/ (14) 3408-3016</t>
+  </si>
+  <si>
+    <t>03/11/2005</t>
+  </si>
+  <si>
+    <t>52.123.916/0014-57</t>
+  </si>
+  <si>
+    <t>2024-10-23T15:17:48.354Z</t>
+  </si>
+  <si>
+    <t>DORI ALIMENTOS</t>
+  </si>
+  <si>
+    <t>GALPAOMODULO 15 SALA B</t>
+  </si>
+  <si>
+    <t>[{'code': '46.37-1-07', 'text': 'Comércio atacadista de chocolates, confeitos, balas, bombons e semelhantes'}]</t>
+  </si>
+  <si>
+    <t>06/04/2004</t>
+  </si>
+  <si>
+    <t>PECCIN SA</t>
+  </si>
+  <si>
+    <t>ESTRADA ESTADUAL RS 331</t>
+  </si>
+  <si>
+    <t>S/N</t>
+  </si>
+  <si>
+    <t>ERECHIM</t>
+  </si>
+  <si>
+    <t>DEMOLINER</t>
+  </si>
+  <si>
+    <t>RS</t>
+  </si>
+  <si>
+    <t>99.700-010</t>
+  </si>
+  <si>
+    <t>10/02/2005</t>
+  </si>
+  <si>
+    <t>EXTINÇÃO POR ENCERRAMENTO LIQUIDAÇÃO VOLUNTÁRIA</t>
+  </si>
+  <si>
+    <t>89.425.888/0005-41</t>
+  </si>
+  <si>
+    <t>2024-09-14T23:59:59.000Z</t>
+  </si>
+  <si>
+    <t>LINHA 1-SECAO DOURADA</t>
+  </si>
+  <si>
+    <t>92302995.00</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <scheme val="minor"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,85 +386,44 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -408,19 +711,458 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AG6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O2" t="s">
+        <v>47</v>
+      </c>
+      <c r="P2" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>49</v>
+      </c>
+      <c r="R2" t="s">
+        <v>50</v>
+      </c>
+      <c r="S2" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="S3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" t="s">
+        <v>65</v>
+      </c>
+      <c r="H4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" t="s">
+        <v>70</v>
+      </c>
+      <c r="M4" t="s">
+        <v>71</v>
+      </c>
+      <c r="N4" t="s">
+        <v>72</v>
+      </c>
+      <c r="O4" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>73</v>
+      </c>
+      <c r="R4" t="s">
+        <v>74</v>
+      </c>
+      <c r="S4" t="s">
+        <v>51</v>
+      </c>
+      <c r="T4" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H5" t="s">
+        <v>83</v>
+      </c>
+      <c r="I5" t="s">
+        <v>84</v>
+      </c>
+      <c r="J5" t="s">
+        <v>85</v>
+      </c>
+      <c r="K5" t="s">
+        <v>86</v>
+      </c>
+      <c r="L5" t="s">
+        <v>87</v>
+      </c>
+      <c r="M5" t="s">
+        <v>88</v>
+      </c>
+      <c r="N5" t="s">
+        <v>89</v>
+      </c>
+      <c r="O5" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>91</v>
+      </c>
+      <c r="R5" t="s">
+        <v>92</v>
+      </c>
+      <c r="S5" t="s">
+        <v>51</v>
+      </c>
+      <c r="T5" t="s">
+        <v>93</v>
+      </c>
+      <c r="U5" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" t="s">
+        <v>97</v>
+      </c>
+      <c r="E6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G6" t="s">
+        <v>98</v>
+      </c>
+      <c r="H6" t="s">
+        <v>99</v>
+      </c>
+      <c r="I6" t="s">
+        <v>100</v>
+      </c>
+      <c r="J6" t="s">
+        <v>101</v>
+      </c>
+      <c r="K6" t="s">
+        <v>102</v>
+      </c>
+      <c r="L6" t="s">
+        <v>103</v>
+      </c>
+      <c r="O6" t="s">
+        <v>104</v>
+      </c>
+      <c r="P6" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>106</v>
+      </c>
+      <c r="R6" t="s">
+        <v>107</v>
+      </c>
+      <c r="S6" t="s">
+        <v>51</v>
+      </c>
+      <c r="U6" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/leitor_cnpj/resultados_cnpj_e.xlsx
+++ b/leitor_cnpj/resultados_cnpj_e.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sooretama-my.sharepoint.com/personal/larissa_sooretama_net/Documents/Área de Trabalho/Laryssa/projetos/leitor_cnpj/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_056510B6D3A05C6A4BD82311595ED87656CDE8A6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{32FF9646-DF26-4E55-9DA0-31D5DC5976C9}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_056510B6D3A05C6A4BD82311595ED87656CDE8A6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{91B047BD-87AC-4045-B471-4633D2F0EB3D}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -425,6 +425,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -714,11 +718,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="33" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.25">
